--- a/data/trans_dic/P29_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P29_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no consume diariamente raciones de verdura u hortalizas al día</t>
+          <t>Población que no consume diariamente raciones de verdura u hortalizas (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>38,46%</t>
+          <t>38,82%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>37,1%</t>
+          <t>36,84%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>33,71%</t>
+          <t>35,28%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>58,98%</t>
+          <t>25,92%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>26,78%</t>
+          <t>59,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>24,88%</t>
+          <t>39,63%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>26,51%</t>
+          <t>26,39%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>25,83%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>27,27%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>29,11%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>44,98%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>32,79%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>31,05%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>30,09%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>52,36%</t>
+          <t>31,33%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>32,77%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>31,38%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>31,25%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>27,55%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>52,37%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>35,77%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>30,05; 47,15</t>
+          <t>30,51; 47,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>28,67; 45,64</t>
+          <t>28,51; 45,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,26; 43,07</t>
+          <t>27,23; 45,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>49,1; 68,59</t>
+          <t>17,59; 34,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>19,84; 34,01</t>
+          <t>49,51; 68,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,63; 32,03</t>
+          <t>29,15; 50,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,51; 33,16</t>
+          <t>19,88; 33,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>35,92; 53,93</t>
+          <t>19,68; 32,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>27,3; 38,65</t>
+          <t>21,15; 35,11</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>25,94; 36,39</t>
+          <t>21,64; 37,57</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>24,61; 35,59</t>
+          <t>35,29; 54,53</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>45,6; 58,9</t>
+          <t>22,92; 39,65</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>27,28; 38,74</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>26,16; 37,17</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>25,84; 37,66</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>21,89; 34,71</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>45,5; 59,2</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>29,37; 43,34</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>41,68%</t>
+          <t>40,87%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>38,54%</t>
+          <t>37,58%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>36,18%</t>
+          <t>36,4%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>45,21%</t>
+          <t>26,53%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>22,32%</t>
+          <t>45,19%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>22,59%</t>
+          <t>36,51%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>23,92%</t>
+          <t>22,37%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>40,47%</t>
+          <t>22,44%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>32,44%</t>
+          <t>24,01%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>30,99%</t>
+          <t>24,01%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>30,45%</t>
+          <t>40,46%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>42,89%</t>
+          <t>24,78%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>32,1%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>30,43%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>30,64%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>25,36%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>42,87%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>30,83%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>32,1; 51,95</t>
+          <t>31,15; 53,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>31,2; 47,37</t>
+          <t>30,45; 45,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27,78; 45,33</t>
+          <t>28,34; 46,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>35,46; 54,94</t>
+          <t>18,02; 35,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,32; 28,72</t>
+          <t>35,47; 54,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,32; 28,92</t>
+          <t>27,37; 46,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,6; 30,0</t>
+          <t>15,64; 28,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>32,51; 48,55</t>
+          <t>17,61; 28,61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>27,04; 39,43</t>
+          <t>18,77; 30,76</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>26,1; 36,28</t>
+          <t>17,98; 32,59</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>25,57; 36,73</t>
+          <t>32,55; 48,88</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>36,34; 49,05</t>
+          <t>18,73; 32,19</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>26,61; 39,34</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>25,69; 34,87</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>25,56; 36,77</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>19,81; 31,32</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>36,81; 48,64</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>25,07; 37,44</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>34,2%</t>
+          <t>36,45%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>27,11%</t>
+          <t>27,26%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>27,17%</t>
+          <t>27,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>42,68%</t>
+          <t>29,03%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>17,4%</t>
+          <t>42,67%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,73%</t>
+          <t>36,99%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>21,46%</t>
+          <t>17,54%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>30,47%</t>
+          <t>20,93%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>25,75%</t>
+          <t>21,41%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>23,84%</t>
+          <t>19,2%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>24,24%</t>
+          <t>30,48%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
+          <t>23,81%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>26,8%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>24,01%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>24,14%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>23,94%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
           <t>36,91%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>30,76%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>27,49; 42,51</t>
+          <t>29,48; 44,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>21,6; 32,75</t>
+          <t>22,13; 33,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,62; 32,45</t>
+          <t>21,56; 33,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>35,36; 50,0</t>
+          <t>22,04; 37,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,55; 22,57</t>
+          <t>35,67; 49,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,7; 25,18</t>
+          <t>30,18; 44,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,52; 26,18</t>
+          <t>13,34; 22,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>24,67; 35,87</t>
+          <t>17,31; 25,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>21,23; 29,75</t>
+          <t>16,92; 25,89</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20,58; 27,25</t>
+          <t>14,78; 24,28</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>20,91; 28,04</t>
+          <t>24,68; 36,41</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>32,5; 41,74</t>
+          <t>18,62; 29,99</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>22,92; 31,41</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>20,77; 27,35</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>20,78; 27,67</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>20,1; 29,4</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>32,12; 41,11</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>26,07; 36,05</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>26,52%</t>
+          <t>26,66%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>27,08%</t>
+          <t>27,23%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>31,51%</t>
+          <t>31,55%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>33,12%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>44,7%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>16,31%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,39%</t>
+          <t>34,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>23,15%</t>
+          <t>16,58%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>19,74%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>23,07%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>18,67%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>38,34%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>21,23%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>23,66%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>27,27%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>29,18%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>21,48%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>23,4%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>27,24%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>25,9%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>41,69%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>31,9%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,84; 31,73</t>
+          <t>21,47; 32,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,19; 32,38</t>
+          <t>22,41; 32,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,26; 36,65</t>
+          <t>26,51; 37,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>37,69; 52,62</t>
+          <t>27,06; 40,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,49; 21,27</t>
+          <t>37,73; 52,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,27; 24,87</t>
+          <t>28,02; 41,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,07; 27,19</t>
+          <t>12,59; 20,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>31,86; 44,72</t>
+          <t>15,96; 24,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,92; 24,93</t>
+          <t>18,96; 27,05</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,5; 27,0</t>
+          <t>14,42; 23,81</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>23,85; 30,66</t>
+          <t>32,39; 44,79</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>36,73; 46,92</t>
+          <t>23,88; 35,31</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>18,39; 25,06</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>20,02; 26,63</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>23,84; 30,67</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>22,44; 31,01</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>36,77; 46,91</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>27,64; 37,14</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>24,74%</t>
+          <t>24,54%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>30,42%</t>
+          <t>30,41%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>36,34%</t>
+          <t>36,18%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>28,49%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>43,37%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>21,55%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>21,22%</t>
+          <t>34,79%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>21,84%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>21,18%</t>
         </is>
       </c>
-      <c r="J12" s="2" t="inlineStr">
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>20,94%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>23,17%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
         <is>
           <t>33,63%</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>23,12%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>25,81%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>28,62%</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
+          <t>27,64%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>23,18%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>25,79%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>28,39%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>25,76%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
           <t>38,29%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>31,12%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>19,39; 31,07</t>
+          <t>19,23; 31,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>25,12; 36,22</t>
+          <t>25,04; 36,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>29,89; 42,48</t>
+          <t>30,12; 42,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>36,33; 51,12</t>
+          <t>21,98; 35,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,39; 28,17</t>
+          <t>35,82; 51,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,09; 26,77</t>
+          <t>28,08; 41,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,34; 27,28</t>
+          <t>16,76; 27,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>27,14; 39,92</t>
+          <t>16,31; 26,61</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>19,35; 27,33</t>
+          <t>16,13; 26,58</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>22,33; 29,94</t>
+          <t>17,49; 30,48</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>24,42; 33,15</t>
+          <t>27,79; 40,6</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>33,38; 43,07</t>
+          <t>21,82; 33,82</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>19,15; 27,45</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>21,78; 29,86</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>24,33; 32,36</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>21,6; 30,99</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>33,69; 43,39</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>26,26; 35,84</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>31,02%</t>
+          <t>28,56%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>32,56%</t>
+          <t>32,38%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>40,19%</t>
+          <t>40,16%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>49,82%</t>
+          <t>28,99%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>21,51%</t>
+          <t>49,83%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>30,85%</t>
+          <t>36,31%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>30,87%</t>
+          <t>21,65%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>36,56%</t>
+          <t>29,77%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>25,65%</t>
+          <t>32,29%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>31,59%</t>
+          <t>29,63%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>34,93%</t>
+          <t>36,54%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>42,13%</t>
+          <t>28,82%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>24,65%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>30,9%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>35,73%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>29,35%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>42,12%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>31,98%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>23,51; 41,52</t>
+          <t>21,6; 37,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>25,65; 42,25</t>
+          <t>24,86; 40,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>33,41; 48,72</t>
+          <t>32,43; 48,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>40,6; 57,41</t>
+          <t>21,83; 38,04</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,26; 28,93</t>
+          <t>41,78; 57,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>24,5; 38,64</t>
+          <t>28,11; 45,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>24,31; 37,99</t>
+          <t>16,28; 28,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>27,39; 46,5</t>
+          <t>23,56; 36,33</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>20,51; 31,1</t>
+          <t>26,27; 39,49</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>27,15; 37,65</t>
+          <t>22,08; 40,25</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>29,8; 40,15</t>
+          <t>27,46; 45,69</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>35,52; 48,84</t>
+          <t>21,08; 37,22</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>20,34; 30,13</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>26,47; 36,35</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>30,8; 40,72</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>23,87; 35,77</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>36,46; 49,51</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>26,66; 37,87</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>32,76%</t>
+          <t>32,72%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>31,81%</t>
+          <t>31,65%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>33,81%</t>
+          <t>34,03%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>28,89%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>46,96%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>20,52%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>23,52%</t>
+          <t>36,4%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>24,58%</t>
+          <t>20,62%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>36,97%</t>
+          <t>23,35%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>26,5%</t>
+          <t>24,92%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>27,57%</t>
+          <t>23,75%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>29,09%</t>
+          <t>36,96%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
+          <t>27,49%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>26,53%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>27,4%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>29,37%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>26,26%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
           <t>41,93%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>31,94%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>29,6; 36,13</t>
+          <t>29,5; 35,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>29,27; 34,69</t>
+          <t>29,05; 34,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>31,05; 36,79</t>
+          <t>31,18; 37,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>43,42; 50,47</t>
+          <t>25,72; 32,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,26; 22,94</t>
+          <t>43,62; 50,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>21,54; 26,16</t>
+          <t>33,04; 40,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>22,25; 27,14</t>
+          <t>18,54; 23,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>33,76; 40,25</t>
+          <t>21,32; 25,59</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>24,69; 28,71</t>
+          <t>22,66; 26,97</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>25,89; 29,28</t>
+          <t>21,39; 26,86</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>27,34; 31,18</t>
+          <t>33,63; 40,24</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>39,44; 44,22</t>
+          <t>24,74; 30,42</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>24,57; 28,57</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>25,88; 29,12</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>27,65; 31,34</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>24,1; 28,36</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>39,59; 44,22</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>29,75; 34,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no consume diariamente raciones de verdura u hortalizas (tasa de respuesta: 99,74%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>191942</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>193107</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>178791</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>118302</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>24588</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>17461</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>123717</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>132986</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>140172</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>137976</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>16820</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>11989</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>315658</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>326093</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>318963</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>256278</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>41408</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>29450</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>150880; 232641</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>149472; 237751</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>137978; 230320</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>80265; 159663</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>20635; 28544</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>12847; 22323</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>93208; 158244</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>101341; 169020</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>108699; 180432</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>102576; 178074</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>13199; 20392</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>8774; 15173</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>262746; 373165</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>271862; 386193</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>263720; 384418</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>203633; 322925</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>35975; 46808</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>24184; 35686</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>234306</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>211495</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>215629</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>153861</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>22181</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>17892</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>115525</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>113092</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>123690</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>120106</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>19100</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>11399</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>349831</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>324587</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>339319</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>273967</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>41280</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>29291</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>178576; 306333</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>171373; 253888</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>167841; 274644</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>104504; 204258</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>17410; 26943</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>13414; 23008</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>80765; 146737</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>88747; 144153</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>96698; 158506</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>89946; 163026</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>15365; 23076</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>8619; 14811</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>289972; 428716</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>274026; 371915</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>283107; 407263</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>213988; 338306</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>35450; 46839</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>23817; 35572</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>249211</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>184316</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>183647</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>194178</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>25693</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>22479</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>124947</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>148837</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>152482</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>137761</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>16431</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>12976</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>374158</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>333153</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>336129</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>331939</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>42125</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>35455</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>201550; 303482</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>149630; 225138</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>146608; 224906</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>147426; 251988</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>21476; 29667</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>18337; 27239</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>95066; 158491</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>123088; 183018</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>120485; 184340</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>106064; 174218</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>13309; 19632</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>10148; 16345</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>320016; 438565</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>288178; 379518</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>289267; 385174</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>278593; 407581</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>36659; 46913</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>30048; 41554</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>172528</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>175329</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>200870</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>216989</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>25916</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>19470</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>113320</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>132911</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>151914</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>122233</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>19945</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>15617</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>285849</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>308240</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>352783</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>339221</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>45862</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>35087</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>138936; 211681</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>144298; 212339</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>168813; 237520</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>177299; 266579</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>21877; 30333</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>15823; 23205</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>86002; 143245</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>107484; 163214</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>124852; 178114</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>94408; 155874</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>16847; 23298</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>12776; 18892</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>244737; 333389</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>263673; 350760</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>308769; 397125</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>293961; 406159</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>40446; 51606</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>30397; 40843</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>121569</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>152642</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>177804</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>139810</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>19182</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>15366</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>111198</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>106555</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>107515</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>119794</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>16233</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>12882</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>232766</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>259197</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>285319</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>259604</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>35415</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>28248</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>95251; 155663</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>125702; 184176</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>148027; 208985</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>107868; 172444</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>15842; 22877</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>12401; 18456</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>85327; 142072</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>82039; 133893</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>82824; 136463</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>90419; 157549</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>13415; 19597</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>10170; 15764</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>192355; 275672</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>218957; 300114</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>244529; 325168</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>217611; 312239</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>31163; 40132</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>23839; 32534</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>155710</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>169117</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>212475</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>164186</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>22990</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>16311</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>153864</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>205390</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>220159</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>213224</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>23281</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>17829</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>309574</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>374507</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>432634</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>377410</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>46271</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>34140</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>117751; 206464</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>129825; 212969</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>171561; 254889</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>123673; 215483</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>19278; 26535</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>12626; 20246</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>115718; 202693</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>162567; 250625</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>179138; 269260</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>158895; 289649</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>17495; 29111</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>13039; 23022</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>255489; 378396</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>320840; 440666</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>372975; 493031</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>307003; 460081</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>40056; 54391</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>28466; 40430</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>367.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>434.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>461.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>299.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>424.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>320.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>269.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>369.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>389.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>275.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>395.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>295.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>636.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>803.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>850.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>574.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>819.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>615.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1125266</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1086005</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1169216</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>987326</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>140550</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>108980</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>742571</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>839771</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>895931</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>851093</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>111811</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>82692</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>1867837</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>1925776</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>2065147</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>1838419</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>252361</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>191672</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1014664; 1233955</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>996756; 1173395</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1071609; 1276395</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>878952; 1101258</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>130553; 150967</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>98906; 120053</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>667707; 838423</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>766904; 920402</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>814535; 969549</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>766556; 962220</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>101734; 121749</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>74398; 91496</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>1729770; 2011448</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>1818936; 2046546</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>1944430; 2203745</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>1687432; 1985000</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>238256; 266114</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>178528; 205057</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
